--- a/biology/Botanique/Maquira/Maquira.xlsx
+++ b/biology/Botanique/Maquira/Maquira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maquira est un genre de plantes à fleurs de la famille des Moraceae, comprenant de 4 à 6 espèces néotropicales, et dont l'espèce type est Maquira guianensis Aubl..
 </t>
@@ -511,7 +523,9 @@
           <t>Desription</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Maquira rassemble des arbres, dioïques ou monoïques. 
 Les feuilles sont simples, alternes, distiques sur les branches latérales.
@@ -528,7 +542,7 @@
 Le périanthe est 4-lobé à 4-fide.
 L'ovaire est adné au périanthe, avec 2 stigmates en forme de langue.
 Lors de la maturation, le périanthe fructifère grossit, devient charnu, et orange.
-Le fruit adné au périanthe contient une grosse graine, dépourvue d'endosperme, et avec des cotylédons épais et égaux[2].
+Le fruit adné au périanthe contient une grosse graine, dépourvue d'endosperme, et avec des cotylédons épais et égaux.
 </t>
         </is>
       </c>
@@ -557,19 +571,21 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (26 janvier 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (26 janvier 2022) :
 Maquira calophylla 
 Maquira coriacea 
 Maquira guianensis 
 Maquira sclerophylla 
-Selon The Plant List            (26 janvier 2022)[4] :
+Selon The Plant List            (26 janvier 2022) :
 Maquira calophylla (Poepp. &amp; Endl.) C.C.Berg
 Maquira coriacea (H.Karst.) C.C.Berg
 Maquira guianensis Aubl.
 Maquira sclerophylla (Ducke) C.C.Berg
-Selon Tropicos                                           (26 janvier 2022)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 janvier 2022) (Attention liste brute contenant possiblement des synonymes) :
 Maquira calophylla (Poepp. &amp; Endl.) C.C. Berg, 1969
 Maquira coriacea (H. Karst.) C.C. Berg, 1969
 Maquira costaricana (Standl.) C.C. Berg, 1969
